--- a/biology/Médecine/Robert_Shprintzen/Robert_Shprintzen.xlsx
+++ b/biology/Médecine/Robert_Shprintzen/Robert_Shprintzen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Robert Shprintzen, est un médecin américain contemporain. Il est spécialiste des troubles de la parole et plus particulièrement des maladies génétiques de la communication.
 Il a donné son nom à quelques troubles répertoriés dans la page d'homonymie syndrome de Shprintzen.
-À la fin des années 1970 il a identifié le syndrome de Shprintzen proprement dit[1] (Microdélétion 22q11), lorsqu'il était directeur d'un important centre cranio-facial au Albert Einstein College of Medicine dans le Bronx.
+À la fin des années 1970 il a identifié le syndrome de Shprintzen proprement dit (Microdélétion 22q11), lorsqu'il était directeur d'un important centre cranio-facial au Albert Einstein College of Medicine dans le Bronx.
 À l'heure actuelle[Quand ?], il est professeur et directeur du "Center for the Diagnosis, Treatment and Study of Velo-Cardio-Facial Syndrome" à la SUNY Upstate Medical University (en) à Syracuse (New-York).
 </t>
         </is>
